--- a/data/trans_dic/P33_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.6904382931029496</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.6739885487285721</v>
+        <v>0.6739885487285719</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.8365941048064525</v>
@@ -697,7 +697,7 @@
         <v>0.7394887201958641</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.7236320397215403</v>
+        <v>0.7236320397215406</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8358853944517028</v>
+        <v>0.8341377222546502</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6881630317218865</v>
+        <v>0.6851716245992521</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7565065277655237</v>
+        <v>0.7581426515227904</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7414197544856554</v>
+        <v>0.7364298326128614</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7806091354224552</v>
+        <v>0.778237466944002</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6258892550520222</v>
+        <v>0.63067717612221</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6492310413534081</v>
+        <v>0.6554577558705269</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6445762972692755</v>
+        <v>0.6466708980290707</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8171130344583182</v>
+        <v>0.8167462531583056</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6696364131779863</v>
+        <v>0.6707807741468846</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7140527271207354</v>
+        <v>0.7152036549360676</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.700312300265365</v>
+        <v>0.7019661357915934</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8884212467367749</v>
+        <v>0.8841320461070633</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7559034547248796</v>
+        <v>0.7559084630388545</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8222845756994828</v>
+        <v>0.8212532384666797</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8101163128933767</v>
+        <v>0.8054995520265301</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8406911642632739</v>
+        <v>0.8359146072103119</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7023747800221437</v>
+        <v>0.7033374470850895</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7249238492907429</v>
+        <v>0.7266101942817976</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6996637257272811</v>
+        <v>0.7046992278465677</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8553192638450166</v>
+        <v>0.8564887924733662</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7183156869136968</v>
+        <v>0.7218183039867092</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7633239993407187</v>
+        <v>0.7655888286728244</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7430121330947518</v>
+        <v>0.7446663897647414</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.8062333985063697</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7946564558817917</v>
+        <v>0.7946564558817918</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.758699209070711</v>
@@ -821,7 +821,7 @@
         <v>0.7271131117155204</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.7371243918016771</v>
+        <v>0.737124391801677</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.7753664253125497</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7665725623770626</v>
+        <v>0.7627014339072444</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7073559478051751</v>
+        <v>0.708189691557023</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7769981816907841</v>
+        <v>0.7795761823612888</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7667849902963221</v>
+        <v>0.766320401469032</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7295523647737595</v>
+        <v>0.7315207889627096</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6300255956291986</v>
+        <v>0.6316708995373668</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6963835738655818</v>
+        <v>0.6966595146534736</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7122621510743152</v>
+        <v>0.7142181976271106</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7547297706124177</v>
+        <v>0.7554577225103416</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6763603364969011</v>
+        <v>0.677339154629359</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7456427838350576</v>
+        <v>0.749296920030588</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7492638892465696</v>
+        <v>0.7461301989673043</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8168995966122277</v>
+        <v>0.8195703585509587</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7644179448722607</v>
+        <v>0.7678604036337164</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8326317105751407</v>
+        <v>0.8316094845894042</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8192228361755255</v>
+        <v>0.8213283238229949</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7872878532086093</v>
+        <v>0.7866928173260646</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6893988765808197</v>
+        <v>0.6898990417871003</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7543580102672002</v>
+        <v>0.7562256849552356</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7587448311429253</v>
+        <v>0.7591903700213759</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7926461995292776</v>
+        <v>0.7940002666779385</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7182791540992189</v>
+        <v>0.7175228582784721</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7846701777937182</v>
+        <v>0.7868025145725146</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7841456038846643</v>
+        <v>0.7806694706979781</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.7383312515252107</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.727264492383272</v>
+        <v>0.7272644923832718</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.6981357272359503</v>
@@ -957,7 +957,7 @@
         <v>0.6919748738736444</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.6968784649553702</v>
+        <v>0.6968784649553703</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.7487078429722039</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7681046323636548</v>
+        <v>0.7659134338245215</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7438185026214944</v>
+        <v>0.7420425488067233</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7045128926877554</v>
+        <v>0.7028042793101972</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6882091342696619</v>
+        <v>0.6915122371010649</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6604461548620729</v>
+        <v>0.6652051436776848</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.667206437643056</v>
+        <v>0.6717250664291053</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6601094814796807</v>
+        <v>0.6552993463519008</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6674112598112055</v>
+        <v>0.6668579804869114</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7258114928208609</v>
+        <v>0.7234946580977368</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7164130647361758</v>
+        <v>0.7168185137149046</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.6899299507867754</v>
+        <v>0.6910379711137012</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6876830759011352</v>
+        <v>0.6862621256163468</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8312271295881655</v>
+        <v>0.8312496352997991</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.807735358157209</v>
+        <v>0.8044989269508248</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7712350416332446</v>
+        <v>0.7686621309540292</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7616369179694926</v>
+        <v>0.7617160408350624</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7284581853526598</v>
+        <v>0.7308592293457224</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7379199249103304</v>
+        <v>0.7411157310261023</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7294702142600286</v>
+        <v>0.7258943910984664</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7292719807778987</v>
+        <v>0.7264690929854309</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7712157358152677</v>
+        <v>0.7715419049442342</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7640427299878221</v>
+        <v>0.7622885424714937</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7381423330637908</v>
+        <v>0.7371891317333368</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7358813269450013</v>
+        <v>0.7332119862668139</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.7353769546295428</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7202329969256861</v>
+        <v>0.7202329969256863</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7671854849572085</v>
@@ -1093,7 +1093,7 @@
         <v>0.7350946923292955</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.6611249667645278</v>
+        <v>0.6611249667645279</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.7887821472967496</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7863970703300033</v>
+        <v>0.788450241524423</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7022660379400572</v>
+        <v>0.6998165776323234</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7040764013966709</v>
+        <v>0.7051590485901632</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6928966279676101</v>
+        <v>0.6913410219115962</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7406304269145332</v>
+        <v>0.7386313579776328</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6432276833035377</v>
+        <v>0.6383185201260166</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7023400037011289</v>
+        <v>0.7066058034474603</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6360007270605216</v>
+        <v>0.6339501883903722</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7702760498961468</v>
+        <v>0.7694188704198803</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6783593406687445</v>
+        <v>0.6788564858910909</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7135773705308751</v>
+        <v>0.7143036765387947</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6713174145239416</v>
+        <v>0.6685926912387101</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8354253844333172</v>
+        <v>0.8373301718330129</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.763338850529532</v>
+        <v>0.7600254145060478</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7642166774840468</v>
+        <v>0.7640081534946658</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7497578712470272</v>
+        <v>0.7469570181961793</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7933848489765118</v>
+        <v>0.7934806650852961</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7006037917077438</v>
+        <v>0.6986255854986879</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7601152565336156</v>
+        <v>0.7616461262487113</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.686177530539866</v>
+        <v>0.6844399604679743</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8057332802802734</v>
+        <v>0.8051598911133753</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7212406154630143</v>
+        <v>0.720704465004238</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7537803085922896</v>
+        <v>0.7565540064922687</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7093579943702584</v>
+        <v>0.7083719434461159</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.7677928238981824</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7549219773282958</v>
+        <v>0.7549219773282959</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.7596167765213312</v>
@@ -1229,7 +1229,7 @@
         <v>0.7147581359444263</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.6928267041543175</v>
+        <v>0.6928267041543174</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.7866353095576866</v>
@@ -1241,7 +1241,7 @@
         <v>0.740729544728754</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.7230153149317786</v>
+        <v>0.7230153149317788</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8011396818480018</v>
+        <v>0.799453884210597</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7253063186853949</v>
+        <v>0.7248170623165755</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7522989248894272</v>
+        <v>0.7520037011144863</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7397707995945242</v>
+        <v>0.7382820511464686</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7446189737634016</v>
+        <v>0.7440205837484555</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6574545668663216</v>
+        <v>0.6586101528081197</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6998305208829499</v>
+        <v>0.6987059277760403</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6781306238117023</v>
+        <v>0.6807292272499946</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7761851318276137</v>
+        <v>0.7764745662851082</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.695966675942261</v>
+        <v>0.6951444627719594</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.730542085927929</v>
+        <v>0.7298686662986493</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.7133889146434906</v>
+        <v>0.7132068531150032</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8284687145329995</v>
+        <v>0.8276989329790363</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7552941103751369</v>
+        <v>0.7551464841603794</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.781408392546881</v>
+        <v>0.7827566438392146</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.770982488003939</v>
+        <v>0.7693361878954454</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7753572459064338</v>
+        <v>0.7741134779838093</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6895998111834301</v>
+        <v>0.690375347867863</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7305561532948609</v>
+        <v>0.7303248284457015</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7057957400703344</v>
+        <v>0.7070555518718867</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7970356449495428</v>
+        <v>0.7968879142685767</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7187208629726092</v>
+        <v>0.7177129790347291</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7514850174507148</v>
+        <v>0.7512972403761872</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7337342263604703</v>
+        <v>0.7333332626634406</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>572616</v>
+        <v>571419</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>483366</v>
+        <v>481265</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>507829</v>
+        <v>508928</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>501449</v>
+        <v>498074</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>535201</v>
+        <v>533575</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>435543</v>
+        <v>438874</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>431384</v>
+        <v>435522</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>459507</v>
+        <v>461000</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1119984</v>
+        <v>1119481</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>936338</v>
+        <v>937938</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>953786</v>
+        <v>955323</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>972886</v>
+        <v>975184</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>608605</v>
+        <v>605667</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>530947</v>
+        <v>530950</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>551985</v>
+        <v>551293</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>547911</v>
+        <v>544788</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>576395</v>
+        <v>573120</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>488767</v>
+        <v>489437</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>481679</v>
+        <v>482799</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>498778</v>
+        <v>502367</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1172352</v>
+        <v>1173955</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1004405</v>
+        <v>1009303</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1019599</v>
+        <v>1022625</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1032206</v>
+        <v>1034504</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>727889</v>
+        <v>724213</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>718647</v>
+        <v>719495</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>791903</v>
+        <v>794531</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>783320</v>
+        <v>782845</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>702032</v>
+        <v>703926</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>649632</v>
+        <v>651328</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>724804</v>
+        <v>725092</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>733319</v>
+        <v>735333</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1442904</v>
+        <v>1444295</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1384566</v>
+        <v>1386569</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1536020</v>
+        <v>1543547</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1536836</v>
+        <v>1530409</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>775676</v>
+        <v>778212</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>776620</v>
+        <v>780118</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>848604</v>
+        <v>847562</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>836889</v>
+        <v>839039</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>757590</v>
+        <v>757017</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>710853</v>
+        <v>711369</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>785145</v>
+        <v>787089</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>781176</v>
+        <v>781635</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1515393</v>
+        <v>1517982</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1470377</v>
+        <v>1468829</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1616416</v>
+        <v>1620808</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1608383</v>
+        <v>1601253</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>515108</v>
+        <v>513638</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>562043</v>
+        <v>560701</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>535114</v>
+        <v>533816</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>510270</v>
+        <v>512719</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>447472</v>
+        <v>450696</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>517880</v>
+        <v>521388</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>517567</v>
+        <v>513796</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>512559</v>
+        <v>512134</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>978504</v>
+        <v>975381</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1097409</v>
+        <v>1098030</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1064987</v>
+        <v>1066697</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1038007</v>
+        <v>1035863</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>557439</v>
+        <v>557454</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>610339</v>
+        <v>607894</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>585793</v>
+        <v>583839</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>564713</v>
+        <v>564771</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>493552</v>
+        <v>495179</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>572768</v>
+        <v>575248</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>571951</v>
+        <v>569147</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>560067</v>
+        <v>557914</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1039716</v>
+        <v>1040156</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1170368</v>
+        <v>1167681</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1139408</v>
+        <v>1137937</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1110759</v>
+        <v>1106730</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>726950</v>
+        <v>728848</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>659834</v>
+        <v>657532</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>660119</v>
+        <v>661134</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>685370</v>
+        <v>683832</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>764116</v>
+        <v>762053</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>672667</v>
+        <v>667533</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>730907</v>
+        <v>735346</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>707981</v>
+        <v>705698</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1506749</v>
+        <v>1505073</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1346778</v>
+        <v>1347765</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1411628</v>
+        <v>1413065</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1411320</v>
+        <v>1405592</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>772272</v>
+        <v>774033</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>717216</v>
+        <v>714103</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>716504</v>
+        <v>716309</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>741614</v>
+        <v>738844</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>818543</v>
+        <v>818642</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>732669</v>
+        <v>730600</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>791032</v>
+        <v>792625</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>763836</v>
+        <v>761902</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1576108</v>
+        <v>1574986</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1431912</v>
+        <v>1430848</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1491159</v>
+        <v>1496646</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1491293</v>
+        <v>1489220</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2587365</v>
+        <v>2581920</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2475877</v>
+        <v>2474207</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2548476</v>
+        <v>2547476</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2536293</v>
+        <v>2531189</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2499789</v>
+        <v>2497780</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2333279</v>
+        <v>2337380</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2470403</v>
+        <v>2466433</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2457275</v>
+        <v>2466692</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5112532</v>
+        <v>5114438</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4845680</v>
+        <v>4839955</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5053588</v>
+        <v>5048930</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>5030881</v>
+        <v>5029597</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2675627</v>
+        <v>2673141</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2578242</v>
+        <v>2577738</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2647087</v>
+        <v>2651654</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2643302</v>
+        <v>2637658</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2602981</v>
+        <v>2598806</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2447361</v>
+        <v>2450113</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2578865</v>
+        <v>2578048</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2557523</v>
+        <v>2562088</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>5249869</v>
+        <v>5248896</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>5004106</v>
+        <v>4997089</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5198463</v>
+        <v>5197164</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>5174358</v>
+        <v>5171530</v>
       </c>
     </row>
     <row r="24">
